--- a/aset/Data Pemain.xlsx
+++ b/aset/Data Pemain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lathifah Media\Documents\Android Awal\Recycleview\aset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C853A5-4FF7-4E97-8F09-08C4DEFB0BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74384A28-64BE-4FD9-B128-633EE4C4C2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="10080" windowHeight="7035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
